--- a/reports/google_workspace_report/templates/xlsx/template.xlsx
+++ b/reports/google_workspace_report/templates/xlsx/template.xlsx
@@ -1,37 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsebran00/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{637C29AA-BA61-B94E-AEB5-6699954564A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AG$1</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Subscription ID</t>
+  </si>
+  <si>
+    <t>Subscription External ID</t>
+  </si>
+  <si>
+    <t>Vendor Reconciliation ID</t>
+  </si>
+  <si>
+    <t>Subscription Type</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>Updated date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Billing Period</t>
+  </si>
+  <si>
+    <t>Anniversary Day</t>
+  </si>
+  <si>
+    <t>Anniversary Month</t>
+  </si>
+  <si>
+    <t>Contract ID</t>
+  </si>
+  <si>
+    <t>Contract Name</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer External ID</t>
+  </si>
+  <si>
+    <t>Tier 1 ID</t>
+  </si>
+  <si>
+    <t>Tier 1 Name</t>
+  </si>
+  <si>
+    <t>Tier 1 External ID</t>
+  </si>
+  <si>
+    <t>Tier 2 ID</t>
+  </si>
+  <si>
+    <t>Tier 2 Name</t>
+  </si>
+  <si>
+    <t>Tier 2 External ID</t>
+  </si>
+  <si>
+    <t>Provider Account ID</t>
+  </si>
+  <si>
+    <t>Provider Account name</t>
+  </si>
+  <si>
+    <t>Vendor Account ID</t>
+  </si>
+  <si>
+    <t>Vendor Account Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Hub ID</t>
+  </si>
+  <si>
+    <t>Hub Name</t>
+  </si>
+  <si>
+    <t>IMC Gamma Team Vendor</t>
+  </si>
+  <si>
+    <t>VA-610-138</t>
+  </si>
+  <si>
+    <t>Report Execution Information</t>
+  </si>
+  <si>
+    <t>Report Start time</t>
+  </si>
+  <si>
+    <t>2023-02-24 08:10:55</t>
+  </si>
+  <si>
+    <t>Report Finish time</t>
+  </si>
+  <si>
+    <t>2023-02-24 08:10:59</t>
+  </si>
+  <si>
+    <t>Account ID</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Report ID</t>
+  </si>
+  <si>
+    <t>subscription_list</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>Subscriptions list report</t>
+  </si>
+  <si>
+    <t>Runtime environment</t>
+  </si>
+  <si>
+    <t>Connect Reports</t>
+  </si>
+  <si>
+    <t>Report execution parameters</t>
+  </si>
+  <si>
+    <t>{
+    "date": {
+        "after": "2023-02-01T00:00:00Z",
+        "before": "2023-02-24T23:59:59Z"
+    },
+    "mkp": {
+        "all": false,
+        "choices": [
+            "MP-65669"
+        ]
+    },
+    "period": {
+        "all": true,
+        "choices": []
+    },
+    "product": {
+        "all": false,
+        "choices": [
+            "PRD-861-570-450"
+        ]
+    },
+    "status": {
+        "all": false,
+        "choices": [
+            "active"
+        ]
+    }
+}</t>
+  </si>
+  <si>
+    <t>Google Domain</t>
+  </si>
+  <si>
+    <t>Google Customer ID</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item MPN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1565C0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,81 +255,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,18 +577,798 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="8" width="20" style="3" customWidth="1"/>
+    <col min="9" max="10" width="18.83203125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="18.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="17.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="17.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="45.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="20" style="3" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="45.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="20" style="3" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="45.83203125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="20" style="3" customWidth="1"/>
+    <col min="26" max="26" width="20" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="45.83203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="45.83203125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="20" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="45.83203125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="15" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="45.83203125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="8.83203125" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AG1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="2" max="2" width="180" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>